--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Notch3</t>
   </si>
   <si>
-    <t>M2</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H2">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J2">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.49790693918736</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N2">
-        <v>3.49790693918736</v>
+        <v>11.65372</v>
       </c>
       <c r="O2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P2">
-        <v>0.08802624775124129</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q2">
-        <v>12.10144392170668</v>
+        <v>25.28050284632889</v>
       </c>
       <c r="R2">
-        <v>12.10144392170668</v>
+        <v>227.52452561696</v>
       </c>
       <c r="S2">
-        <v>0.001109850474276144</v>
+        <v>0.002205199747580241</v>
       </c>
       <c r="T2">
-        <v>0.001109850474276144</v>
+        <v>0.002205199747580241</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H3">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J3">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.61940000434991</v>
+        <v>6.662909</v>
       </c>
       <c r="N3">
-        <v>6.61940000434991</v>
+        <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P3">
-        <v>0.1665798875949634</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q3">
-        <v>22.90063724982785</v>
+        <v>43.36169650703733</v>
       </c>
       <c r="R3">
-        <v>22.90063724982785</v>
+        <v>390.255268563336</v>
       </c>
       <c r="S3">
-        <v>0.002100268635493779</v>
+        <v>0.003782409027748252</v>
       </c>
       <c r="T3">
-        <v>0.002100268635493779</v>
+        <v>0.003782409027748252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H4">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J4">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.105794767457187</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N4">
-        <v>0.105794767457187</v>
+        <v>0.14758</v>
       </c>
       <c r="O4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P4">
-        <v>0.002662368259898546</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q4">
-        <v>0.3660101505989697</v>
+        <v>0.3201464090488889</v>
       </c>
       <c r="R4">
-        <v>0.3660101505989697</v>
+        <v>2.88131768144</v>
       </c>
       <c r="S4">
-        <v>3.356760911014165E-05</v>
+        <v>2.792613678275194E-05</v>
       </c>
       <c r="T4">
-        <v>3.356760911014165E-05</v>
+        <v>2.792613678275194E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45962432165737</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H5">
-        <v>3.45962432165737</v>
+        <v>19.523768</v>
       </c>
       <c r="I5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J5">
-        <v>0.01260817656811338</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.5139884018581</v>
+        <v>0.106491</v>
       </c>
       <c r="N5">
-        <v>29.5139884018581</v>
+        <v>0.319473</v>
       </c>
       <c r="O5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P5">
-        <v>0.7427314963938968</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q5">
-        <v>102.1073121041818</v>
+        <v>0.693035192696</v>
       </c>
       <c r="R5">
-        <v>102.1073121041818</v>
+        <v>6.237316734264001</v>
       </c>
       <c r="S5">
-        <v>0.009364489849233319</v>
+        <v>6.045295227263933E-05</v>
       </c>
       <c r="T5">
-        <v>0.009364489849233319</v>
+        <v>6.045295227263933E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>268.14510524654</v>
+        <v>6.507922666666667</v>
       </c>
       <c r="H6">
-        <v>268.14510524654</v>
+        <v>19.523768</v>
       </c>
       <c r="I6">
-        <v>0.9772219520078136</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="J6">
-        <v>0.9772219520078136</v>
+        <v>0.02333320049201848</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.49790693918736</v>
+        <v>30.399472</v>
       </c>
       <c r="N6">
-        <v>3.49790693918736</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P6">
-        <v>0.08802624775124129</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q6">
-        <v>937.9466243509972</v>
+        <v>197.8374128834987</v>
       </c>
       <c r="R6">
-        <v>937.9466243509972</v>
+        <v>1780.536715951488</v>
       </c>
       <c r="S6">
-        <v>0.08602118165539142</v>
+        <v>0.0172572126276346</v>
       </c>
       <c r="T6">
-        <v>0.08602118165539142</v>
+        <v>0.0172572126276346</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H7">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J7">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.61940000434991</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N7">
-        <v>6.61940000434991</v>
+        <v>11.65372</v>
       </c>
       <c r="O7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P7">
-        <v>0.1665798875949634</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q7">
-        <v>1774.959710835354</v>
+        <v>1047.076143589089</v>
       </c>
       <c r="R7">
-        <v>1774.959710835354</v>
+        <v>9423.6852923018</v>
       </c>
       <c r="S7">
-        <v>0.1627855229207923</v>
+        <v>0.09133568511574344</v>
       </c>
       <c r="T7">
-        <v>0.1627855229207923</v>
+        <v>0.09133568511574344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H8">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J8">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.105794767457187</v>
+        <v>6.662909</v>
       </c>
       <c r="N8">
-        <v>0.105794767457187</v>
+        <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376684</v>
       </c>
       <c r="P8">
-        <v>0.002662368259898546</v>
+        <v>0.1621041669376685</v>
       </c>
       <c r="Q8">
-        <v>28.36834905434063</v>
+        <v>1795.968942313278</v>
       </c>
       <c r="R8">
-        <v>28.36834905434063</v>
+        <v>16163.7204808195</v>
       </c>
       <c r="S8">
-        <v>0.002601724707901704</v>
+        <v>0.1566610554515261</v>
       </c>
       <c r="T8">
-        <v>0.002601724707901704</v>
+        <v>0.1566610554515261</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>268.14510524654</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H9">
-        <v>268.14510524654</v>
+        <v>808.641815</v>
       </c>
       <c r="I9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J9">
-        <v>0.9772219520078136</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>29.5139884018581</v>
+        <v>0.04919333333333333</v>
       </c>
       <c r="N9">
-        <v>29.5139884018581</v>
+        <v>0.14758</v>
       </c>
       <c r="O9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="P9">
-        <v>0.7427314963938968</v>
+        <v>0.001196841247402154</v>
       </c>
       <c r="Q9">
-        <v>7914.031526261402</v>
+        <v>13.25992878418889</v>
       </c>
       <c r="R9">
-        <v>7914.031526261402</v>
+        <v>119.3393590577</v>
       </c>
       <c r="S9">
-        <v>0.7258135227237282</v>
+        <v>0.001156653876134094</v>
       </c>
       <c r="T9">
-        <v>0.7258135227237282</v>
+        <v>0.001156653876134094</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.79056486374348</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H10">
-        <v>2.79056486374348</v>
+        <v>808.641815</v>
       </c>
       <c r="I10">
-        <v>0.01016987142407295</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J10">
-        <v>0.01016987142407295</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.49790693918736</v>
+        <v>0.106491</v>
       </c>
       <c r="N10">
-        <v>3.49790693918736</v>
+        <v>0.319473</v>
       </c>
       <c r="O10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="P10">
-        <v>0.08802624775124129</v>
+        <v>0.002590855561941376</v>
       </c>
       <c r="Q10">
-        <v>9.761136201140749</v>
+        <v>28.704358507055</v>
       </c>
       <c r="R10">
-        <v>9.761136201140749</v>
+        <v>258.339226563495</v>
       </c>
       <c r="S10">
-        <v>0.0008952156215737148</v>
+        <v>0.002503860169197639</v>
       </c>
       <c r="T10">
-        <v>0.0008952156215737148</v>
+        <v>0.002503860169197639</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.79056486374348</v>
+        <v>269.5472716666666</v>
       </c>
       <c r="H11">
-        <v>2.79056486374348</v>
+        <v>808.641815</v>
       </c>
       <c r="I11">
-        <v>0.01016987142407295</v>
+        <v>0.9664221371420065</v>
       </c>
       <c r="J11">
-        <v>0.01016987142407295</v>
+        <v>0.9664221371420064</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.61940000434991</v>
+        <v>30.399472</v>
       </c>
       <c r="N11">
-        <v>6.61940000434991</v>
+        <v>91.19841600000001</v>
       </c>
       <c r="O11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832805</v>
       </c>
       <c r="P11">
-        <v>0.1665798875949634</v>
+        <v>0.7395990375832806</v>
       </c>
       <c r="Q11">
-        <v>18.4718650712023</v>
+        <v>8194.094737707226</v>
       </c>
       <c r="R11">
-        <v>18.4718650712023</v>
+        <v>73746.85263936504</v>
       </c>
       <c r="S11">
-        <v>0.001694096038677303</v>
+        <v>0.7147648825294052</v>
       </c>
       <c r="T11">
-        <v>0.001694096038677303</v>
+        <v>0.7147648825294052</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.79056486374348</v>
+        <v>0.035174</v>
       </c>
       <c r="H12">
-        <v>2.79056486374348</v>
+        <v>0.105522</v>
       </c>
       <c r="I12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="J12">
-        <v>0.01016987142407295</v>
+        <v>0.0001261112087748008</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.105794767457187</v>
+        <v>3.884573333333333</v>
       </c>
       <c r="N12">
-        <v>0.105794767457187</v>
+        <v>11.65372</v>
       </c>
       <c r="O12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="P12">
-        <v>0.002662368259898546</v>
+        <v>0.09450909866970746</v>
       </c>
       <c r="Q12">
-        <v>0.2952271608339382</v>
+        <v>0.1366359824266667</v>
       </c>
       <c r="R12">
-        <v>0.2952271608339382</v>
+        <v>1.22972384184</v>
       </c>
       <c r="S12">
-        <v>2.707594288670106E-05</v>
+        <v>1.191865667345372E-05</v>
       </c>
       <c r="T12">
-        <v>2.707594288670106E-05</v>
+        <v>1.191865667345372E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,557 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.035174</v>
+      </c>
+      <c r="H13">
+        <v>0.105522</v>
+      </c>
+      <c r="I13">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J13">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>6.662909</v>
+      </c>
+      <c r="N13">
+        <v>19.988727</v>
+      </c>
+      <c r="O13">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P13">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q13">
+        <v>0.234361161166</v>
+      </c>
+      <c r="R13">
+        <v>2.109250450494</v>
+      </c>
+      <c r="S13">
+        <v>2.044315243994147E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.044315243994146E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.035174</v>
+      </c>
+      <c r="H14">
+        <v>0.105522</v>
+      </c>
+      <c r="I14">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J14">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.14758</v>
+      </c>
+      <c r="O14">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P14">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q14">
+        <v>0.001730326306666667</v>
+      </c>
+      <c r="R14">
+        <v>0.01557293676</v>
+      </c>
+      <c r="S14">
+        <v>1.50935096421426E-07</v>
+      </c>
+      <c r="T14">
+        <v>1.50935096421426E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.035174</v>
+      </c>
+      <c r="H15">
+        <v>0.105522</v>
+      </c>
+      <c r="I15">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J15">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.106491</v>
+      </c>
+      <c r="N15">
+        <v>0.319473</v>
+      </c>
+      <c r="O15">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P15">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q15">
+        <v>0.003745714434000001</v>
+      </c>
+      <c r="R15">
+        <v>0.03371142990600001</v>
+      </c>
+      <c r="S15">
+        <v>3.267359266773427E-07</v>
+      </c>
+      <c r="T15">
+        <v>3.267359266773427E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.035174</v>
+      </c>
+      <c r="H16">
+        <v>0.105522</v>
+      </c>
+      <c r="I16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="J16">
+        <v>0.0001261112087748008</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.399472</v>
+      </c>
+      <c r="N16">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O16">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P16">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q16">
+        <v>1.069271028128</v>
+      </c>
+      <c r="R16">
+        <v>9.623439253152002</v>
+      </c>
+      <c r="S16">
+        <v>9.327172863830682E-05</v>
+      </c>
+      <c r="T16">
+        <v>9.327172863830682E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.822191</v>
+      </c>
+      <c r="H17">
+        <v>8.466573</v>
+      </c>
+      <c r="I17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J17">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.884573333333333</v>
+      </c>
+      <c r="N17">
+        <v>11.65372</v>
+      </c>
+      <c r="O17">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="P17">
+        <v>0.09450909866970746</v>
+      </c>
+      <c r="Q17">
+        <v>10.96300790017333</v>
+      </c>
+      <c r="R17">
+        <v>98.66707110156</v>
+      </c>
+      <c r="S17">
+        <v>0.0009562951497103268</v>
+      </c>
+      <c r="T17">
+        <v>0.0009562951497103266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.822191</v>
+      </c>
+      <c r="H18">
+        <v>8.466573</v>
+      </c>
+      <c r="I18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J18">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>6.662909</v>
+      </c>
+      <c r="N18">
+        <v>19.988727</v>
+      </c>
+      <c r="O18">
+        <v>0.1621041669376684</v>
+      </c>
+      <c r="P18">
+        <v>0.1621041669376685</v>
+      </c>
+      <c r="Q18">
+        <v>18.804001813619</v>
+      </c>
+      <c r="R18">
+        <v>169.236016322571</v>
+      </c>
+      <c r="S18">
+        <v>0.001640259305954137</v>
+      </c>
+      <c r="T18">
+        <v>0.001640259305954137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.822191</v>
+      </c>
+      <c r="H19">
+        <v>8.466573</v>
+      </c>
+      <c r="I19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J19">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.04919333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.14758</v>
+      </c>
+      <c r="O19">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="P19">
+        <v>0.001196841247402154</v>
+      </c>
+      <c r="Q19">
+        <v>0.1388329825933333</v>
+      </c>
+      <c r="R19">
+        <v>1.24949684334</v>
+      </c>
+      <c r="S19">
+        <v>1.211029938888613E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.211029938888612E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="H13">
-        <v>2.79056486374348</v>
-      </c>
-      <c r="I13">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="J13">
-        <v>0.01016987142407295</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>29.5139884018581</v>
-      </c>
-      <c r="N13">
-        <v>29.5139884018581</v>
-      </c>
-      <c r="O13">
-        <v>0.7427314963938968</v>
-      </c>
-      <c r="P13">
-        <v>0.7427314963938968</v>
-      </c>
-      <c r="Q13">
-        <v>82.36069902315781</v>
-      </c>
-      <c r="R13">
-        <v>82.36069902315781</v>
-      </c>
-      <c r="S13">
-        <v>0.007553483820935234</v>
-      </c>
-      <c r="T13">
-        <v>0.007553483820935234</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.822191</v>
+      </c>
+      <c r="H20">
+        <v>8.466573</v>
+      </c>
+      <c r="I20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J20">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.106491</v>
+      </c>
+      <c r="N20">
+        <v>0.319473</v>
+      </c>
+      <c r="O20">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="P20">
+        <v>0.002590855561941376</v>
+      </c>
+      <c r="Q20">
+        <v>0.300537941781</v>
+      </c>
+      <c r="R20">
+        <v>2.704841476029</v>
+      </c>
+      <c r="S20">
+        <v>2.621570454442077E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.621570454442077E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.822191</v>
+      </c>
+      <c r="H21">
+        <v>8.466573</v>
+      </c>
+      <c r="I21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="J21">
+        <v>0.01011855115720031</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.399472</v>
+      </c>
+      <c r="N21">
+        <v>91.19841600000001</v>
+      </c>
+      <c r="O21">
+        <v>0.7395990375832805</v>
+      </c>
+      <c r="P21">
+        <v>0.7395990375832806</v>
+      </c>
+      <c r="Q21">
+        <v>85.79311628315202</v>
+      </c>
+      <c r="R21">
+        <v>772.1380465483682</v>
+      </c>
+      <c r="S21">
+        <v>0.00748367069760254</v>
+      </c>
+      <c r="T21">
+        <v>0.00748367069760254</v>
       </c>
     </row>
   </sheetData>
